--- a/database/item.xlsx
+++ b/database/item.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E3" t="n">
